--- a/DataTable/100游戏设置.xlsx
+++ b/DataTable/100游戏设置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BAB86B-708F-41D3-9340-A0D26E2924DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2A16A-E109-461B-8B06-BAEEC581EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
